--- a/My Sets/StarPilot W (WASM-4)/StarPilot W - Plan.xlsx
+++ b/My Sets/StarPilot W (WASM-4)/StarPilot W - Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="2" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="Game Dec" sheetId="16" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Achievements!$B$1:$G$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Achievements!$B$1:$G$172</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Checklist!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Extras!$A$1:$F$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Extras!$A$1:$F$58</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="78">
   <si>
     <t>Description</t>
   </si>
@@ -196,27 +196,6 @@
     <t>Highest Score</t>
   </si>
   <si>
-    <t>Complete stage 10</t>
-  </si>
-  <si>
-    <t>Complete stage 20</t>
-  </si>
-  <si>
-    <t>Complete stage 30</t>
-  </si>
-  <si>
-    <t>Complete stage 40</t>
-  </si>
-  <si>
-    <t>Complete stage 50</t>
-  </si>
-  <si>
-    <t>Complete stage 10 without taking damage</t>
-  </si>
-  <si>
-    <t>Highest score (submits on death)</t>
-  </si>
-  <si>
     <t>Destroy 50 or more asteroids in a single stage</t>
   </si>
   <si>
@@ -232,22 +211,73 @@
     <t>Straighten Up and Fly Right</t>
   </si>
   <si>
-    <t>Boost through 10 gates in one life</t>
-  </si>
-  <si>
-    <t>Boost through 25 gates in one life</t>
-  </si>
-  <si>
     <t>Destroy 100 or more asteroids in a single stage</t>
   </si>
   <si>
-    <t>Boost through 50 gates in one life</t>
-  </si>
-  <si>
     <t>Gate Booster</t>
   </si>
   <si>
-    <t>Most gates passed through while boosted (submits on death)</t>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Colonel</t>
+  </si>
+  <si>
+    <t>Out of Bounds</t>
+  </si>
+  <si>
+    <t>Aerial Acrobat</t>
+  </si>
+  <si>
+    <t>Flight Specialist</t>
+  </si>
+  <si>
+    <t>Highest score (cancels if player goes out of bounds, submits on death)</t>
+  </si>
+  <si>
+    <t>Most gates passed through while boosted (cancels if player goes out of bounds, submits on death)</t>
+  </si>
+  <si>
+    <t>Complete stages 41 to 50 (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Complete stages 51 to 75 (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Complete stages 75 to 100 (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Complete stages 31 to 40 (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Complete stages 21 to 30 (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Complete stages 11 to 20 (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Complete stages 0 to 10 (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Complete stages 0 to 10 without taking damage (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Complete stages 0 to 20 without taking damage (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Complete stages 0 to 30 without taking damage (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Boost through 10 gates in one life (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Boost through 25 gates in one life (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Boost through 50 gates in one life (going out of bounds resets achievement)</t>
+  </si>
+  <si>
+    <t>Go out of bounds for an accumulative 15 seconds (cancels other achievements and leaderboards)</t>
   </si>
 </sst>
 </file>
@@ -610,10 +640,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,14 +693,14 @@
         <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E2" s="7">
         <f>VLOOKUP(D2,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -685,14 +715,14 @@
         <v>42</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="7">
         <f>VLOOKUP(D3,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -707,14 +737,14 @@
         <v>43</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7">
         <f>VLOOKUP(D4,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -729,14 +759,14 @@
         <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="7">
         <f>VLOOKUP(D5,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -751,192 +781,241 @@
         <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="7">
         <f>VLOOKUP(D6,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7" s="7">
         <f>VLOOKUP(D7,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" s="7">
         <f>VLOOKUP(D8,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="7">
         <f>VLOOKUP(D9,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" s="7">
         <f>VLOOKUP(D10,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E11" s="7">
         <f>VLOOKUP(D11,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="7">
         <f>VLOOKUP(D12,Stats!$A$1:$B$10,2,FALSE)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E13" s="7">
         <f>VLOOKUP(D13,Stats!$A$1:$B$10,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7">
+        <f>VLOOKUP(D14,Stats!$A$1:$B$10,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7">
+        <f>VLOOKUP(D15,Stats!$A$1:$B$10,2,FALSE)</f>
         <v>5</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
-      <c r="D14" s="5"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
-      <c r="D15" s="5"/>
-      <c r="G15"/>
+      <c r="F15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="7">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7">
+        <f>VLOOKUP(D16,Stats!$A$1:$B$10,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
-      <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="G17"/>
     </row>
     <row r="18" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
@@ -1144,13 +1223,13 @@
     </row>
     <row r="52" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
-      <c r="C52" s="10"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
-      <c r="C53" s="10"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="G53" s="5"/>
     </row>
@@ -1180,13 +1259,13 @@
     </row>
     <row r="58" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="8"/>
-      <c r="C58" s="5"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="5"/>
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="8"/>
-      <c r="C59" s="5"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="5"/>
       <c r="G59" s="5"/>
     </row>
@@ -1270,13 +1349,13 @@
     </row>
     <row r="73" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="8"/>
-      <c r="C73" s="10"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="G73" s="5"/>
     </row>
     <row r="74" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="8"/>
-      <c r="C74" s="10"/>
+      <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="G74" s="5"/>
     </row>
@@ -1286,12 +1365,10 @@
       <c r="D75" s="5"/>
       <c r="G75" s="5"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="8"/>
       <c r="C76" s="10"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
       <c r="G76" s="5"/>
     </row>
     <row r="77" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1300,10 +1377,12 @@
       <c r="D77" s="5"/>
       <c r="G77" s="5"/>
     </row>
-    <row r="78" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="8"/>
       <c r="C78" s="10"/>
       <c r="D78" s="5"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
       <c r="G78" s="5"/>
     </row>
     <row r="79" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1318,19 +1397,16 @@
       <c r="D80" s="5"/>
       <c r="G80" s="5"/>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" s="10"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="8"/>
       <c r="C82" s="10"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
       <c r="G82" s="5"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
@@ -1339,7 +1415,6 @@
       <c r="D83" s="5"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="5"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="8"/>
@@ -1355,7 +1430,7 @@
       <c r="D85" s="5"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="8"/>
@@ -1363,6 +1438,7 @@
       <c r="D86" s="5"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
+      <c r="G86" s="5"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
@@ -1370,9 +1446,11 @@
       <c r="D87" s="5"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
+      <c r="C88" s="10"/>
       <c r="D88" s="5"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
@@ -1385,22 +1463,23 @@
       <c r="F89" s="7"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="8"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="8"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="5"/>
-      <c r="D92"/>
-      <c r="E92"/>
-      <c r="G92"/>
-    </row>
-    <row r="93" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="5"/>
-      <c r="D93"/>
-      <c r="E93"/>
-      <c r="G93"/>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F92" s="7"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F93" s="7"/>
     </row>
     <row r="94" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
@@ -1424,18 +1503,18 @@
       <c r="C97" s="5"/>
       <c r="D97"/>
       <c r="E97"/>
-      <c r="G97" s="5"/>
+      <c r="G97"/>
     </row>
     <row r="98" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="8"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="5"/>
-      <c r="G98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="G98"/>
     </row>
     <row r="99" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="8"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99"/>
+      <c r="E99"/>
       <c r="G99" s="5"/>
     </row>
     <row r="100" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1452,13 +1531,13 @@
     </row>
     <row r="102" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
-      <c r="C102" s="5"/>
+      <c r="C102" s="10"/>
       <c r="D102" s="5"/>
       <c r="G102" s="5"/>
     </row>
     <row r="103" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
-      <c r="C103" s="5"/>
+      <c r="C103" s="10"/>
       <c r="D103" s="5"/>
       <c r="G103" s="5"/>
     </row>
@@ -1472,42 +1551,40 @@
       <c r="B105" s="8"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
       <c r="G105" s="5"/>
     </row>
     <row r="106" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
       <c r="G106" s="5"/>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="7"/>
       <c r="G107" s="5"/>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
+      <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="7"/>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
-      <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
+      <c r="F109" s="7"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
-      <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
+      <c r="F110" s="7"/>
       <c r="G110" s="5"/>
     </row>
     <row r="111" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1543,13 +1620,13 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="G115" s="9"/>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="5"/>
+    </row>
+    <row r="116" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="8"/>
+      <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="7"/>
       <c r="G116" s="5"/>
     </row>
     <row r="117" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1557,20 +1634,20 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
-      <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
+      <c r="F118" s="7"/>
       <c r="G118" s="5"/>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="8"/>
+      <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="7"/>
       <c r="G119" s="5"/>
     </row>
     <row r="120" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1587,11 +1664,11 @@
       <c r="F121" s="7"/>
       <c r="G121" s="5"/>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
+      <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="7"/>
       <c r="G122" s="5"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
@@ -1601,47 +1678,47 @@
       <c r="F123" s="7"/>
       <c r="G123" s="5"/>
     </row>
-    <row r="124" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="8"/>
-      <c r="C124" s="10"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
+      <c r="F124" s="7"/>
       <c r="G124" s="5"/>
     </row>
-    <row r="125" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="8"/>
-      <c r="C125" s="10"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
+      <c r="F125" s="7"/>
       <c r="G125" s="5"/>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="8"/>
       <c r="C126" s="10"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="7"/>
       <c r="G126" s="5"/>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="8"/>
+      <c r="C127" s="10"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="7"/>
       <c r="G127" s="5"/>
     </row>
-    <row r="128" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="8"/>
-      <c r="C128" s="5"/>
+      <c r="C128" s="10"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
+      <c r="F128" s="7"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="8"/>
-      <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
+      <c r="F129" s="7"/>
       <c r="G129" s="5"/>
     </row>
     <row r="130" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1665,18 +1742,18 @@
       <c r="E132" s="5"/>
       <c r="G132" s="5"/>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="8"/>
+      <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="7"/>
       <c r="G133" s="5"/>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="8"/>
+      <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="7"/>
       <c r="G134" s="5"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
@@ -1705,12 +1782,14 @@
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="7"/>
+      <c r="G138" s="5"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="8"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
       <c r="F139" s="7"/>
+      <c r="G139" s="5"/>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="8"/>
@@ -1719,11 +1798,15 @@
       <c r="F140" s="7"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B141" s="2"/>
+      <c r="B141" s="8"/>
+      <c r="D141" s="5"/>
+      <c r="E141" s="5"/>
       <c r="F141" s="7"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B142" s="2"/>
+      <c r="B142" s="8"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
       <c r="F142" s="7"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
@@ -1746,108 +1829,108 @@
       <c r="B147" s="2"/>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="2"/>
-      <c r="C148" s="5"/>
-      <c r="D148"/>
-      <c r="E148"/>
-      <c r="G148"/>
+      <c r="F148" s="7"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="2"/>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="2"/>
-      <c r="F150" s="7"/>
-    </row>
-    <row r="151" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="5"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="G150"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="2"/>
-      <c r="C151" s="5"/>
-      <c r="D151"/>
-      <c r="E151"/>
-      <c r="G151"/>
-    </row>
-    <row r="152" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="7"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="2"/>
-      <c r="C152" s="5"/>
-      <c r="D152"/>
-      <c r="E152"/>
-      <c r="G152"/>
-    </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F152" s="7"/>
+    </row>
+    <row r="153" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="2"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-    </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C153" s="5"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="G153"/>
+    </row>
+    <row r="154" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="2"/>
-      <c r="F154" s="7"/>
+      <c r="C154" s="5"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="G154"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="2"/>
       <c r="F155" s="7"/>
+      <c r="G155" s="7"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="2"/>
-      <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
       <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="2"/>
       <c r="F157" s="7"/>
-      <c r="G157" s="7"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="2"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
       <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="2"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
       <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="2"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
       <c r="F160" s="7"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="2"/>
-      <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
       <c r="F161" s="7"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="2"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
       <c r="F162" s="7"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="2"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="5"/>
       <c r="F163" s="7"/>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="2"/>
       <c r="F164" s="7"/>
     </row>
-    <row r="165" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="2"/>
-      <c r="C165" s="5"/>
-      <c r="D165"/>
-      <c r="E165"/>
-      <c r="G165"/>
+      <c r="F165" s="7"/>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="2"/>
       <c r="F166" s="7"/>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="2"/>
-      <c r="F167" s="7"/>
+      <c r="C167" s="5"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="G167"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="2"/>
@@ -1860,7 +1943,6 @@
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="2"/>
       <c r="F170" s="7"/>
-      <c r="G170" s="7"/>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="2"/>
@@ -1869,15 +1951,24 @@
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="2"/>
       <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="2"/>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
       <c r="F173" s="7"/>
     </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="2"/>
+      <c r="F174" s="7"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="2"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:G170">
+  <autoFilter ref="B1:G172">
     <sortState ref="B2:L87">
       <sortCondition ref="E1:E87"/>
     </sortState>
@@ -1894,7 +1985,7 @@
           <x14:formula1>
             <xm:f>Stats!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>D98:D173 D2:D89</xm:sqref>
+          <xm:sqref>D100:D175 D2:D6 D7:D91</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1905,10 +1996,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,13 +2045,47 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
-      <c r="F2" s="7"/>
+      <c r="A2" s="7">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7">
+        <f>VLOOKUP(D2,Stats!$A$1:$B$10,2,FALSE)</f>
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="7">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7">
+        <f>VLOOKUP(D3,Stats!$A$1:$B$10,2,FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1970,7 +2095,6 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
-      <c r="C5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="5"/>
     </row>
@@ -1981,6 +2105,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
+      <c r="C7" s="5"/>
       <c r="F7" s="7"/>
       <c r="G7" s="5"/>
     </row>
@@ -1991,13 +2116,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
-      <c r="C9" s="5"/>
       <c r="F9" s="7"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
-      <c r="C10" s="5"/>
       <c r="F10" s="7"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -2022,21 +2147,21 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="5"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="5"/>
-      <c r="F16"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="5"/>
-      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="5"/>
-      <c r="F18" s="7"/>
+      <c r="F18"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -2115,25 +2240,21 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="5"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="8"/>
       <c r="C35" s="5"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="5"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="1"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="5"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="1"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
@@ -2275,7 +2396,21 @@
       <c r="E57" s="5"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="5"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="5"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2286,7 +2421,7 @@
           <x14:formula1>
             <xm:f>Stats!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>C36:C57 D2:D35</xm:sqref>
+          <xm:sqref>C38:C59 D2:D37</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2298,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2341,15 +2476,15 @@
         <v>49</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,11 +2528,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2584,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>Achievements!F2</f>
-        <v>Complete stage 10</v>
+        <v>Complete stages 0 to 10 (going out of bounds resets achievement)</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -2482,7 +2617,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>Achievements!F3</f>
-        <v>Complete stage 20</v>
+        <v>Complete stages 11 to 20 (going out of bounds resets achievement)</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
@@ -2500,7 +2635,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="7" t="str">
-        <f t="shared" ref="I3:I13" si="1">IF(COUNTIF(D3:H3,"X")=5,"YES","NO")</f>
+        <f t="shared" ref="I3:I16" si="1">IF(COUNTIF(D3:H3,"X")=5,"YES","NO")</f>
         <v>YES</v>
       </c>
     </row>
@@ -2515,7 +2650,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>Achievements!F4</f>
-        <v>Complete stage 30</v>
+        <v>Complete stages 21 to 30 (going out of bounds resets achievement)</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -2539,16 +2674,16 @@
     </row>
     <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <f>Achievements!A5</f>
-        <v>4</v>
+        <f>Extras!A2</f>
+        <v>6</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f>Achievements!C5</f>
-        <v>Senior Officer</v>
+        <f>Extras!C2</f>
+        <v>Major</v>
       </c>
       <c r="C5" s="7" t="str">
         <f>Achievements!F5</f>
-        <v>Complete stage 40</v>
+        <v>Complete stages 31 to 40 (going out of bounds resets achievement)</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -2572,16 +2707,16 @@
     </row>
     <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <f>Achievements!A6</f>
-        <v>5</v>
+        <f>Extras!A3</f>
+        <v>7</v>
       </c>
       <c r="B6" s="7" t="str">
-        <f>Achievements!C6</f>
-        <v>Captain </v>
+        <f>Extras!C3</f>
+        <v>Colonel</v>
       </c>
       <c r="C6" s="7" t="str">
         <f>Achievements!F6</f>
-        <v>Complete stage 50</v>
+        <v>Complete stages 41 to 50 (going out of bounds resets achievement)</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -2605,16 +2740,16 @@
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <f>Achievements!A7</f>
-        <v>6</v>
+        <f>Achievements!A9</f>
+        <v>10</v>
       </c>
       <c r="B7" s="7" t="str">
-        <f>Achievements!C7</f>
+        <f>Achievements!C9</f>
         <v>Ace Pilot</v>
       </c>
       <c r="C7" s="7" t="str">
         <f>Achievements!F7</f>
-        <v>Complete stage 10 without taking damage</v>
+        <v>Complete stages 0 to 10 without taking damage (going out of bounds resets achievement)</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -2638,16 +2773,16 @@
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <f>Achievements!A8</f>
-        <v>7</v>
+        <f>Achievements!A10</f>
+        <v>11</v>
       </c>
       <c r="B8" s="7" t="str">
-        <f>Achievements!C8</f>
+        <f>Achievements!C10</f>
         <v>Asteroid Destroyer</v>
       </c>
       <c r="C8" s="7" t="str">
         <f>Achievements!F8</f>
-        <v>Destroy 25 or more asteroids in a single stage</v>
+        <v>Complete stages 0 to 20 without taking damage (going out of bounds resets achievement)</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -2671,16 +2806,16 @@
     </row>
     <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <f>Achievements!A9</f>
-        <v>8</v>
+        <f>Achievements!A11</f>
+        <v>12</v>
       </c>
       <c r="B9" s="7" t="str">
-        <f>Achievements!C9</f>
+        <f>Achievements!C11</f>
         <v xml:space="preserve">Asteroid Obliterator </v>
       </c>
       <c r="C9" s="7" t="str">
         <f>Achievements!F9</f>
-        <v>Destroy 50 or more asteroids in a single stage</v>
+        <v>Complete stages 0 to 30 without taking damage (going out of bounds resets achievement)</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>20</v>
@@ -2703,17 +2838,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <f>Achievements!A10</f>
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="str">
-        <f>Achievements!C10</f>
-        <v>Asteroid Annihilator</v>
-      </c>
       <c r="C10" s="7" t="str">
         <f>Achievements!F10</f>
-        <v>Destroy 100 or more asteroids in a single stage</v>
+        <v>Destroy 25 or more asteroids in a single stage</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
@@ -2736,17 +2863,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <f>Achievements!A11</f>
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="str">
-        <f>Achievements!C11</f>
-        <v>Learning to Fly</v>
-      </c>
       <c r="C11" s="7" t="str">
         <f>Achievements!F11</f>
-        <v>Boost through 10 gates in one life</v>
+        <v>Destroy 50 or more asteroids in a single stage</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>20</v>
@@ -2769,17 +2888,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <f>Achievements!A12</f>
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="str">
-        <f>Achievements!C12</f>
-        <v>Straighten Up and Fly Right</v>
-      </c>
       <c r="C12" s="7" t="str">
         <f>Achievements!F12</f>
-        <v>Boost through 25 gates in one life</v>
+        <v>Destroy 100 or more asteroids in a single stage</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>20</v>
@@ -2802,17 +2913,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <f>Achievements!A13</f>
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f>Achievements!C13</f>
-        <v>Thread the Needle</v>
-      </c>
       <c r="C13" s="7" t="str">
         <f>Achievements!F13</f>
-        <v>Boost through 50 gates in one life</v>
+        <v>Boost through 10 gates in one life (going out of bounds resets achievement)</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>20</v>
@@ -2834,49 +2937,148 @@
         <v>YES</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="str">
-        <f>COUNTIF(D2:D13,"X")&amp;" /"&amp;ROW()-2</f>
-        <v>12 /12</v>
-      </c>
-      <c r="E14" s="7" t="str">
-        <f>COUNTIF(E2:E13,"X")&amp;" /"&amp;ROW()-2</f>
-        <v>12 /12</v>
-      </c>
-      <c r="F14" s="7" t="str">
-        <f>COUNTIF(F2:F13,"X")&amp;" /"&amp;ROW()-2</f>
-        <v>12 /12</v>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f>COUNTIF(G2:G13,"X")&amp;" /"&amp;ROW()-2</f>
-        <v>12 /12</v>
-      </c>
-      <c r="H14" s="7" t="str">
-        <f>COUNTIF(H2:H13,"X")&amp;" /"&amp;ROW()-2</f>
-        <v>12 /12</v>
+    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <f>Achievements!A12</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f>Achievements!C12</f>
+        <v>Asteroid Annihilator</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>Achievements!F14</f>
+        <v>Boost through 25 gates in one life (going out of bounds resets achievement)</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="I14" s="7" t="str">
-        <f>COUNTIF(I2:I13,"YES")&amp;" /"&amp;ROW()-2</f>
-        <v>12 /12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <f>Achievements!A13</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f>Achievements!C13</f>
+        <v>Learning to Fly</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>Achievements!F15</f>
+        <v>Boost through 50 gates in one life (going out of bounds resets achievement)</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <f>Achievements!A14</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f>Achievements!C14</f>
+        <v>Straighten Up and Fly Right</v>
+      </c>
+      <c r="C16" s="7" t="str">
+        <f>Achievements!F16</f>
+        <v>Go out of bounds for an accumulative 15 seconds (cancels other achievements and leaderboards)</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="str">
+        <f>COUNTIF(D2:D16,"X")&amp;" /"&amp;ROW()-2</f>
+        <v>15 /15</v>
+      </c>
+      <c r="E17" s="7" t="str">
+        <f>COUNTIF(E2:E16,"X")&amp;" /"&amp;ROW()-2</f>
+        <v>15 /15</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f>COUNTIF(F2:F16,"X")&amp;" /"&amp;ROW()-2</f>
+        <v>15 /15</v>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f>COUNTIF(G2:G16,"X")&amp;" /"&amp;ROW()-2</f>
+        <v>15 /15</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f>COUNTIF(H2:H16,"X")&amp;" /"&amp;ROW()-2</f>
+        <v>15 /15</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f>COUNTIF(I2:I16,"YES")&amp;" /"&amp;ROW()-2</f>
+        <v>15 /15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1">
@@ -2894,7 +3096,7 @@
   <dimension ref="A1:A76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A12:A14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,91 +3117,91 @@
     <row r="3" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="str">
         <f ca="1">"achievement("&amp;CHAR(34)&amp;INDIRECT("Achievements!C"&amp;(ROW()-1))&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;INDIRECT("Achievements!F"&amp;(ROW()-1))&amp;CHAR(34)&amp;", "&amp;INDIRECT("Achievements!E"&amp;(ROW()-1))&amp;", trigger)"</f>
-        <v>achievement("Cadet","Complete stage 10", 2, trigger)</v>
+        <v>achievement("Cadet","Complete stages 0 to 10 (going out of bounds resets achievement)", 1, trigger)</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f t="shared" ref="A4:A32" ca="1" si="0">"achievement("&amp;CHAR(34)&amp;INDIRECT("Achievements!C"&amp;(ROW()-1))&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;INDIRECT("Achievements!F"&amp;(ROW()-1))&amp;CHAR(34)&amp;", "&amp;INDIRECT("Achievements!E"&amp;(ROW()-1))&amp;", trigger)"</f>
-        <v>achievement("Second Officer","Complete stage 20", 3, trigger)</v>
+        <v>achievement("Second Officer","Complete stages 11 to 20 (going out of bounds resets achievement)", 2, trigger)</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("First Officer","Complete stage 30", 5, trigger)</v>
+        <v>achievement("First Officer","Complete stages 21 to 30 (going out of bounds resets achievement)", 3, trigger)</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Senior Officer","Complete stage 40", 5, trigger)</v>
+        <v>achievement("Senior Officer","Complete stages 31 to 40 (going out of bounds resets achievement)", 4, trigger)</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Captain ","Complete stage 50", 10, trigger)</v>
+        <v>achievement("Captain ","Complete stages 41 to 50 (going out of bounds resets achievement)", 5, trigger)</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Ace Pilot","Complete stage 10 without taking damage", 5, trigger)</v>
+        <v>achievement("Flight Specialist","Complete stages 0 to 10 without taking damage (going out of bounds resets achievement)", 2, trigger)</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Asteroid Destroyer","Destroy 25 or more asteroids in a single stage", 2, trigger)</v>
+        <v>achievement("Aerial Acrobat","Complete stages 0 to 20 without taking damage (going out of bounds resets achievement)", 3, trigger)</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Asteroid Obliterator ","Destroy 50 or more asteroids in a single stage", 3, trigger)</v>
+        <v>achievement("Ace Pilot","Complete stages 0 to 30 without taking damage (going out of bounds resets achievement)", 5, trigger)</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Asteroid Annihilator","Destroy 100 or more asteroids in a single stage", 5, trigger)</v>
+        <v>achievement("Asteroid Destroyer","Destroy 25 or more asteroids in a single stage", 2, trigger)</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Learning to Fly","Boost through 10 gates in one life", 2, trigger)</v>
+        <v>achievement("Asteroid Obliterator ","Destroy 50 or more asteroids in a single stage", 3, trigger)</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Straighten Up and Fly Right","Boost through 25 gates in one life", 3, trigger)</v>
+        <v>achievement("Asteroid Annihilator","Destroy 100 or more asteroids in a single stage", 5, trigger)</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Thread the Needle","Boost through 50 gates in one life", 5, trigger)</v>
+        <v>achievement("Learning to Fly","Boost through 10 gates in one life (going out of bounds resets achievement)", 2, trigger)</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("","", , trigger)</v>
+        <v>achievement("Straighten Up and Fly Right","Boost through 25 gates in one life (going out of bounds resets achievement)", 3, trigger)</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("","", , trigger)</v>
+        <v>achievement("Thread the Needle","Boost through 50 gates in one life (going out of bounds resets achievement)", 5, trigger)</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("","", , trigger)</v>
+        <v>achievement("Out of Bounds","Go out of bounds for an accumulative 15 seconds (cancels other achievements and leaderboards)", 0, trigger)</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3407,7 +3609,7 @@
       </c>
       <c r="C2">
         <f>COUNTIF(Achievements!D:D,A2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>32</v>
@@ -3418,7 +3620,7 @@
       </c>
       <c r="G2" s="7">
         <f>SUMIF(Achievements!B:B,E2,Achievements!E:E)</f>
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -3431,7 +3633,7 @@
       </c>
       <c r="C3">
         <f>COUNTIF(Achievements!D:D,A3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>38</v>
@@ -3455,18 +3657,18 @@
       </c>
       <c r="C4">
         <f>COUNTIF(Achievements!D:D,A4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F4" s="4">
         <f>COUNTIF(Achievements!B:B,E4)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7">
         <f>SUMIF(Achievements!B:B,E4,Achievements!E:E)</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,7 +3680,7 @@
       </c>
       <c r="C5">
         <f>COUNTIF(Achievements!D:D,A5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>37</v>
@@ -3501,7 +3703,7 @@
       </c>
       <c r="C6">
         <f>COUNTIF(Achievements!D:D,A6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>39</v>
@@ -3524,18 +3726,18 @@
       </c>
       <c r="C7">
         <f>COUNTIF(Achievements!D:D,A7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="3">
         <f>SUM(F2:F6)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3">
         <f>SUM(G2:G6)</f>
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3547,7 +3749,7 @@
       </c>
       <c r="C8">
         <f>COUNTIF(Achievements!D:D,A8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3581,7 +3783,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3">
         <f>SUM(C2:C10)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/My Sets/StarPilot W (WASM-4)/StarPilot W - Plan.xlsx
+++ b/My Sets/StarPilot W (WASM-4)/StarPilot W - Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="635"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="2" r:id="rId1"/>
@@ -238,46 +238,46 @@
     <t>Most gates passed through while boosted (cancels if player goes out of bounds, submits on death)</t>
   </si>
   <si>
-    <t>Complete stages 41 to 50 (going out of bounds resets achievement)</t>
-  </si>
-  <si>
     <t>Complete stages 51 to 75 (going out of bounds resets achievement)</t>
   </si>
   <si>
     <t>Complete stages 75 to 100 (going out of bounds resets achievement)</t>
   </si>
   <si>
-    <t>Complete stages 31 to 40 (going out of bounds resets achievement)</t>
-  </si>
-  <si>
-    <t>Complete stages 21 to 30 (going out of bounds resets achievement)</t>
-  </si>
-  <si>
-    <t>Complete stages 11 to 20 (going out of bounds resets achievement)</t>
-  </si>
-  <si>
-    <t>Complete stages 0 to 10 (going out of bounds resets achievement)</t>
-  </si>
-  <si>
-    <t>Complete stages 0 to 10 without taking damage (going out of bounds resets achievement)</t>
-  </si>
-  <si>
-    <t>Complete stages 0 to 20 without taking damage (going out of bounds resets achievement)</t>
-  </si>
-  <si>
-    <t>Complete stages 0 to 30 without taking damage (going out of bounds resets achievement)</t>
-  </si>
-  <si>
-    <t>Boost through 10 gates in one life (going out of bounds resets achievement)</t>
-  </si>
-  <si>
-    <t>Boost through 25 gates in one life (going out of bounds resets achievement)</t>
-  </si>
-  <si>
-    <t>Boost through 50 gates in one life (going out of bounds resets achievement)</t>
-  </si>
-  <si>
-    <t>Go out of bounds for an accumulative 15 seconds (cancels other achievements and leaderboards)</t>
+    <t>Complete stages 0 to 30 without taking damage, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Complete stages 0 to 20 without taking damage, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Complete stages 0 to 10 without taking damage, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Complete stages 41 to 50, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Complete stages 31 to 40, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Complete stages 21 to 30, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Complete stages 11 to 20, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Complete stages 0 to 10, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Boost through 10 gates in one life, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Boost through 25 gates in one life, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Boost through 50 gates in one life, going out of bounds resets achievement</t>
+  </si>
+  <si>
+    <t>Go out of bounds for an accumulative 15 seconds, cancels other achievements and leaderboards</t>
   </si>
 </sst>
 </file>
@@ -642,8 +642,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -788,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -810,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G8" s="5"/>
     </row>
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -2062,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="5"/>
     </row>
@@ -2084,7 +2084,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -2530,7 +2530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C2" s="7" t="str">
         <f>Achievements!F2</f>
-        <v>Complete stages 0 to 10 (going out of bounds resets achievement)</v>
+        <v>Complete stages 0 to 10, going out of bounds resets achievement</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>20</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="C3" s="7" t="str">
         <f>Achievements!F3</f>
-        <v>Complete stages 11 to 20 (going out of bounds resets achievement)</v>
+        <v>Complete stages 11 to 20, going out of bounds resets achievement</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>20</v>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C4" s="7" t="str">
         <f>Achievements!F4</f>
-        <v>Complete stages 21 to 30 (going out of bounds resets achievement)</v>
+        <v>Complete stages 21 to 30, going out of bounds resets achievement</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>20</v>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="C5" s="7" t="str">
         <f>Achievements!F5</f>
-        <v>Complete stages 31 to 40 (going out of bounds resets achievement)</v>
+        <v>Complete stages 31 to 40, going out of bounds resets achievement</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>20</v>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C6" s="7" t="str">
         <f>Achievements!F6</f>
-        <v>Complete stages 41 to 50 (going out of bounds resets achievement)</v>
+        <v>Complete stages 41 to 50, going out of bounds resets achievement</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>20</v>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C7" s="7" t="str">
         <f>Achievements!F7</f>
-        <v>Complete stages 0 to 10 without taking damage (going out of bounds resets achievement)</v>
+        <v>Complete stages 0 to 10 without taking damage, going out of bounds resets achievement</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>20</v>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="C8" s="7" t="str">
         <f>Achievements!F8</f>
-        <v>Complete stages 0 to 20 without taking damage (going out of bounds resets achievement)</v>
+        <v>Complete stages 0 to 20 without taking damage, going out of bounds resets achievement</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>20</v>
@@ -2815,7 +2815,7 @@
       </c>
       <c r="C9" s="7" t="str">
         <f>Achievements!F9</f>
-        <v>Complete stages 0 to 30 without taking damage (going out of bounds resets achievement)</v>
+        <v>Complete stages 0 to 30 without taking damage, going out of bounds resets achievement</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>20</v>
@@ -2915,7 +2915,7 @@
     <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="str">
         <f>Achievements!F13</f>
-        <v>Boost through 10 gates in one life (going out of bounds resets achievement)</v>
+        <v>Boost through 10 gates in one life, going out of bounds resets achievement</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>20</v>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C14" s="7" t="str">
         <f>Achievements!F14</f>
-        <v>Boost through 25 gates in one life (going out of bounds resets achievement)</v>
+        <v>Boost through 25 gates in one life, going out of bounds resets achievement</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>20</v>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C15" s="7" t="str">
         <f>Achievements!F15</f>
-        <v>Boost through 50 gates in one life (going out of bounds resets achievement)</v>
+        <v>Boost through 50 gates in one life, going out of bounds resets achievement</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>20</v>
@@ -3014,7 +3014,7 @@
       </c>
       <c r="C16" s="7" t="str">
         <f>Achievements!F16</f>
-        <v>Go out of bounds for an accumulative 15 seconds (cancels other achievements and leaderboards)</v>
+        <v>Go out of bounds for an accumulative 15 seconds, cancels other achievements and leaderboards</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>20</v>
@@ -3117,49 +3117,49 @@
     <row r="3" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="str">
         <f ca="1">"achievement("&amp;CHAR(34)&amp;INDIRECT("Achievements!C"&amp;(ROW()-1))&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;INDIRECT("Achievements!F"&amp;(ROW()-1))&amp;CHAR(34)&amp;", "&amp;INDIRECT("Achievements!E"&amp;(ROW()-1))&amp;", trigger)"</f>
-        <v>achievement("Cadet","Complete stages 0 to 10 (going out of bounds resets achievement)", 1, trigger)</v>
+        <v>achievement("Cadet","Complete stages 0 to 10, going out of bounds resets achievement", 1, trigger)</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
         <f t="shared" ref="A4:A32" ca="1" si="0">"achievement("&amp;CHAR(34)&amp;INDIRECT("Achievements!C"&amp;(ROW()-1))&amp;CHAR(34)&amp;","&amp;CHAR(34)&amp;INDIRECT("Achievements!F"&amp;(ROW()-1))&amp;CHAR(34)&amp;", "&amp;INDIRECT("Achievements!E"&amp;(ROW()-1))&amp;", trigger)"</f>
-        <v>achievement("Second Officer","Complete stages 11 to 20 (going out of bounds resets achievement)", 2, trigger)</v>
+        <v>achievement("Second Officer","Complete stages 11 to 20, going out of bounds resets achievement", 2, trigger)</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("First Officer","Complete stages 21 to 30 (going out of bounds resets achievement)", 3, trigger)</v>
+        <v>achievement("First Officer","Complete stages 21 to 30, going out of bounds resets achievement", 3, trigger)</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Senior Officer","Complete stages 31 to 40 (going out of bounds resets achievement)", 4, trigger)</v>
+        <v>achievement("Senior Officer","Complete stages 31 to 40, going out of bounds resets achievement", 4, trigger)</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Captain ","Complete stages 41 to 50 (going out of bounds resets achievement)", 5, trigger)</v>
+        <v>achievement("Captain ","Complete stages 41 to 50, going out of bounds resets achievement", 5, trigger)</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Flight Specialist","Complete stages 0 to 10 without taking damage (going out of bounds resets achievement)", 2, trigger)</v>
+        <v>achievement("Flight Specialist","Complete stages 0 to 10 without taking damage, going out of bounds resets achievement", 2, trigger)</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Aerial Acrobat","Complete stages 0 to 20 without taking damage (going out of bounds resets achievement)", 3, trigger)</v>
+        <v>achievement("Aerial Acrobat","Complete stages 0 to 20 without taking damage, going out of bounds resets achievement", 3, trigger)</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Ace Pilot","Complete stages 0 to 30 without taking damage (going out of bounds resets achievement)", 5, trigger)</v>
+        <v>achievement("Ace Pilot","Complete stages 0 to 30 without taking damage, going out of bounds resets achievement", 5, trigger)</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -3183,25 +3183,25 @@
     <row r="14" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Learning to Fly","Boost through 10 gates in one life (going out of bounds resets achievement)", 2, trigger)</v>
+        <v>achievement("Learning to Fly","Boost through 10 gates in one life, going out of bounds resets achievement", 2, trigger)</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Straighten Up and Fly Right","Boost through 25 gates in one life (going out of bounds resets achievement)", 3, trigger)</v>
+        <v>achievement("Straighten Up and Fly Right","Boost through 25 gates in one life, going out of bounds resets achievement", 3, trigger)</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Thread the Needle","Boost through 50 gates in one life (going out of bounds resets achievement)", 5, trigger)</v>
+        <v>achievement("Thread the Needle","Boost through 50 gates in one life, going out of bounds resets achievement", 5, trigger)</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Out of Bounds","Go out of bounds for an accumulative 15 seconds (cancels other achievements and leaderboards)", 0, trigger)</v>
+        <v>achievement("Out of Bounds","Go out of bounds for an accumulative 15 seconds, cancels other achievements and leaderboards", 0, trigger)</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.25">
